--- a/Listas/Lista03-resolucao.xlsx
+++ b/Listas/Lista03-resolucao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ex01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>F</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Rejeitamos H0</t>
-  </si>
-  <si>
-    <t>Não rejeitamos H0</t>
-  </si>
-  <si>
     <t>Conclusão para Tratamento</t>
   </si>
   <si>
@@ -75,6 +69,39 @@
   </si>
   <si>
     <t>GL</t>
+  </si>
+  <si>
+    <t>Rejeitamos H0 ao nível de 1% de significância</t>
+  </si>
+  <si>
+    <t>e concluímos que os adubos afetam a produção da</t>
+  </si>
+  <si>
+    <t>cultura do milho.</t>
+  </si>
+  <si>
+    <t>Não rejeitamos H0 ao nível de 5% de probabilidade</t>
+  </si>
+  <si>
+    <t>e concluímos que os espaçamentos testados não afetaram</t>
+  </si>
+  <si>
+    <t>a produção da cultura do algodão.</t>
+  </si>
+  <si>
+    <t>Rejeitamos H0 ao nível de 1% os blocos foram eficientes no controle local</t>
+  </si>
+  <si>
+    <t>Não rejeitamos H0 ao nível de 5% os blocos não foram eficientes no controle local</t>
+  </si>
+  <si>
+    <t>concluímos que os teores de alumínio no solo influenciam na altura de planta de pinheiro.</t>
+  </si>
+  <si>
+    <t>Rejeitamos H0 ao nível de 1% de significância e concluímos que</t>
+  </si>
+  <si>
+    <t>os inceticidas influenciaram no controle da broca do tomateiro.</t>
   </si>
 </sst>
 </file>
@@ -415,9 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -445,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -493,7 +522,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <f>B7-B5</f>
@@ -526,12 +555,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -542,9 +581,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -569,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -617,7 +658,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <f>B7-B5</f>
@@ -650,12 +691,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -666,10 +717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +735,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -695,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -743,7 +794,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f>B2-1</f>
@@ -804,22 +855,27 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -832,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +904,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -859,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -907,7 +963,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f>B2-1</f>
@@ -968,26 +1024,28 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
+      <c r="A14" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>

--- a/Listas/Lista03-resolucao.xlsx
+++ b/Listas/Lista03-resolucao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ex01" sheetId="1" r:id="rId1"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
